--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T12:58:08+00:00</t>
+    <t>2025-07-18T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:16:41+00:00</t>
+    <t>2025-07-18T13:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:28:33+00:00</t>
+    <t>2025-07-18T14:08:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1756,7 +1756,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-identifier"/&gt;
     &lt;code value="PLI"/&gt;
     &lt;display value="Patient local identifier"/&gt;
   &lt;/coding&gt;
@@ -1798,7 +1798,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-identifier"/&gt;
     &lt;code value="PIN"/&gt;
     &lt;display value="Patient initial number"/&gt;
   &lt;/coding&gt;

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7540" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7540" uniqueCount="868">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Usager INS</t>
+    <t>TDDUI Patient INS</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:08:23+00:00</t>
+    <t>2025-07-21T08:20:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1869,6 +1869,10 @@
   <si>
     <t xml:space="preserve">value:use}
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+prefix-restriction:La civilité est limitée à Monsieur ou Madame. {prefix.empty() or (prefix = 'Monsieur' or prefix = 'Madame')}</t>
   </si>
   <si>
     <t>name</t>
@@ -19997,19 +20001,19 @@
         <v>81</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>101</v>
+        <v>581</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>81</v>
@@ -20017,13 +20021,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>574</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>81</v>
@@ -20033,7 +20037,7 @@
         <v>79</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>81</v>
@@ -20045,13 +20049,13 @@
         <v>90</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>578</v>
@@ -20121,16 +20125,16 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -20138,10 +20142,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20253,10 +20257,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20370,10 +20374,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20399,16 +20403,16 @@
         <v>173</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>81</v>
@@ -20436,10 +20440,10 @@
         <v>263</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>81</v>
@@ -20457,7 +20461,7 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -20481,7 +20485,7 @@
         <v>81</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>81</v>
@@ -20489,10 +20493,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20518,13 +20522,13 @@
         <v>103</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>284</v>
@@ -20576,7 +20580,7 @@
         <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20600,7 +20604,7 @@
         <v>81</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>81</v>
@@ -20608,14 +20612,14 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20637,13 +20641,13 @@
         <v>103</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20693,7 +20697,7 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20708,7 +20712,7 @@
         <v>101</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>81</v>
@@ -20717,7 +20721,7 @@
         <v>81</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>81</v>
@@ -20725,14 +20729,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20754,13 +20758,13 @@
         <v>103</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20810,7 +20814,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20825,7 +20829,7 @@
         <v>101</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>81</v>
@@ -20834,7 +20838,7 @@
         <v>81</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>81</v>
@@ -20842,10 +20846,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20871,10 +20875,10 @@
         <v>103</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20925,7 +20929,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20940,7 +20944,7 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>81</v>
@@ -20949,7 +20953,7 @@
         <v>81</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>81</v>
@@ -20957,10 +20961,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20986,10 +20990,10 @@
         <v>103</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21040,7 +21044,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -21055,7 +21059,7 @@
         <v>101</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>81</v>
@@ -21064,7 +21068,7 @@
         <v>81</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>81</v>
@@ -21072,10 +21076,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21101,14 +21105,14 @@
         <v>343</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>81</v>
@@ -21157,7 +21161,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -21181,7 +21185,7 @@
         <v>81</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>81</v>
@@ -21189,13 +21193,13 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>574</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>81</v>
@@ -21217,13 +21221,13 @@
         <v>90</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N155" t="s" s="2">
         <v>578</v>
@@ -21293,16 +21297,16 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>81</v>
@@ -21310,10 +21314,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21425,10 +21429,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21540,13 +21544,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>81</v>
@@ -21568,13 +21572,13 @@
         <v>81</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -21657,10 +21661,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21686,16 +21690,16 @@
         <v>173</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>81</v>
@@ -21723,10 +21727,10 @@
         <v>263</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>81</v>
@@ -21744,7 +21748,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -21768,7 +21772,7 @@
         <v>81</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>81</v>
@@ -21776,10 +21780,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21805,13 +21809,13 @@
         <v>103</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>284</v>
@@ -21863,7 +21867,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -21887,7 +21891,7 @@
         <v>81</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>81</v>
@@ -21895,14 +21899,14 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -21924,13 +21928,13 @@
         <v>103</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21980,7 +21984,7 @@
         <v>81</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -21995,7 +21999,7 @@
         <v>101</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>81</v>
@@ -22004,7 +22008,7 @@
         <v>81</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>81</v>
@@ -22012,14 +22016,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22041,13 +22045,13 @@
         <v>103</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -22097,7 +22101,7 @@
         <v>81</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -22112,7 +22116,7 @@
         <v>101</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>81</v>
@@ -22121,7 +22125,7 @@
         <v>81</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>81</v>
@@ -22129,10 +22133,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22158,10 +22162,10 @@
         <v>103</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -22212,7 +22216,7 @@
         <v>81</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>79</v>
@@ -22227,7 +22231,7 @@
         <v>101</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>81</v>
@@ -22236,7 +22240,7 @@
         <v>81</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>81</v>
@@ -22244,10 +22248,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22273,10 +22277,10 @@
         <v>103</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -22327,7 +22331,7 @@
         <v>81</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>79</v>
@@ -22342,7 +22346,7 @@
         <v>101</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>81</v>
@@ -22351,7 +22355,7 @@
         <v>81</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>81</v>
@@ -22359,10 +22363,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22388,14 +22392,14 @@
         <v>343</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>81</v>
@@ -22444,7 +22448,7 @@
         <v>81</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -22468,7 +22472,7 @@
         <v>81</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>81</v>
@@ -22476,10 +22480,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22502,19 +22506,19 @@
         <v>81</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>81</v>
@@ -22563,7 +22567,7 @@
         <v>81</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -22575,10 +22579,10 @@
         <v>207</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>81</v>
@@ -22587,7 +22591,7 @@
         <v>81</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>81</v>
@@ -22595,10 +22599,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22624,16 +22628,16 @@
         <v>173</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>81</v>
@@ -22662,7 +22666,7 @@
       </c>
       <c r="Y167" s="2"/>
       <c r="Z167" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>81</v>
@@ -22680,7 +22684,7 @@
         <v>81</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -22695,16 +22699,16 @@
         <v>101</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>81</v>
@@ -22712,10 +22716,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22738,19 +22742,19 @@
         <v>90</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>81</v>
@@ -22799,7 +22803,7 @@
         <v>81</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22814,27 +22818,27 @@
         <v>101</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22857,19 +22861,19 @@
         <v>90</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>81</v>
@@ -22918,7 +22922,7 @@
         <v>81</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -22933,7 +22937,7 @@
         <v>101</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>107</v>
@@ -22942,7 +22946,7 @@
         <v>81</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>81</v>
@@ -22950,10 +22954,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22988,7 +22992,7 @@
         <v>243</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>81</v>
@@ -23037,7 +23041,7 @@
         <v>81</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>79</v>
@@ -23069,10 +23073,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23098,14 +23102,14 @@
         <v>387</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>81</v>
@@ -23134,7 +23138,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>81</v>
@@ -23152,7 +23156,7 @@
         <v>81</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>79</v>
@@ -23167,16 +23171,16 @@
         <v>101</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>81</v>
@@ -23184,10 +23188,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23210,19 +23214,19 @@
         <v>81</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>81</v>
@@ -23271,7 +23275,7 @@
         <v>81</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>79</v>
@@ -23286,7 +23290,7 @@
         <v>101</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>107</v>
@@ -23295,7 +23299,7 @@
         <v>81</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>81</v>
@@ -23303,10 +23307,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23329,19 +23333,19 @@
         <v>81</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>81</v>
@@ -23390,7 +23394,7 @@
         <v>81</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>79</v>
@@ -23405,7 +23409,7 @@
         <v>101</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>107</v>
@@ -23414,7 +23418,7 @@
         <v>81</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>81</v>
@@ -23422,10 +23426,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23448,19 +23452,19 @@
         <v>81</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>81</v>
@@ -23509,7 +23513,7 @@
         <v>81</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>79</v>
@@ -23521,10 +23525,10 @@
         <v>81</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>107</v>
@@ -23541,10 +23545,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23656,10 +23660,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23769,13 +23773,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="B177" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="B177" t="s" s="2">
-        <v>739</v>
-      </c>
       <c r="C177" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>81</v>
@@ -23797,13 +23801,13 @@
         <v>81</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23886,13 +23890,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>81</v>
@@ -23914,13 +23918,13 @@
         <v>81</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24003,14 +24007,14 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
@@ -24032,10 +24036,10 @@
         <v>110</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>113</v>
@@ -24090,7 +24094,7 @@
         <v>81</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>79</v>
@@ -24122,10 +24126,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24151,14 +24155,14 @@
         <v>387</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>81</v>
@@ -24186,16 +24190,16 @@
         <v>155</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB180" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AC180" s="2"/>
       <c r="AD180" t="s" s="2">
@@ -24205,7 +24209,7 @@
         <v>116</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>79</v>
@@ -24220,7 +24224,7 @@
         <v>101</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>107</v>
@@ -24229,7 +24233,7 @@
         <v>81</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>81</v>
@@ -24237,13 +24241,13 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>81</v>
@@ -24268,14 +24272,14 @@
         <v>387</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>81</v>
@@ -24304,7 +24308,7 @@
       </c>
       <c r="Y181" s="2"/>
       <c r="Z181" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>81</v>
@@ -24322,7 +24326,7 @@
         <v>81</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>79</v>
@@ -24337,7 +24341,7 @@
         <v>101</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>107</v>
@@ -24346,7 +24350,7 @@
         <v>81</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>81</v>
@@ -24354,13 +24358,13 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>81</v>
@@ -24385,14 +24389,14 @@
         <v>387</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>81</v>
@@ -24421,7 +24425,7 @@
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>81</v>
@@ -24439,7 +24443,7 @@
         <v>81</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>79</v>
@@ -24454,7 +24458,7 @@
         <v>101</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>107</v>
@@ -24463,7 +24467,7 @@
         <v>81</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>81</v>
@@ -24471,10 +24475,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24500,16 +24504,16 @@
         <v>575</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>81</v>
@@ -24558,7 +24562,7 @@
         <v>81</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>79</v>
@@ -24573,7 +24577,7 @@
         <v>101</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>81</v>
@@ -24582,7 +24586,7 @@
         <v>81</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>81</v>
@@ -24590,10 +24594,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24616,19 +24620,19 @@
         <v>81</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>81</v>
@@ -24677,7 +24681,7 @@
         <v>81</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>79</v>
@@ -24689,10 +24693,10 @@
         <v>207</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>81</v>
@@ -24701,7 +24705,7 @@
         <v>81</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>81</v>
@@ -24709,10 +24713,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24735,17 +24739,17 @@
         <v>81</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>81</v>
@@ -24794,7 +24798,7 @@
         <v>81</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>79</v>
@@ -24809,7 +24813,7 @@
         <v>101</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>107</v>
@@ -24818,7 +24822,7 @@
         <v>81</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>81</v>
@@ -24826,10 +24830,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24855,14 +24859,14 @@
         <v>173</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>81</v>
@@ -24890,10 +24894,10 @@
         <v>263</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>81</v>
@@ -24911,7 +24915,7 @@
         <v>81</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>79</v>
@@ -24926,7 +24930,7 @@
         <v>101</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>107</v>
@@ -24935,7 +24939,7 @@
         <v>81</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>81</v>
@@ -24943,10 +24947,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24972,14 +24976,14 @@
         <v>426</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>81</v>
@@ -25028,7 +25032,7 @@
         <v>81</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>79</v>
@@ -25037,13 +25041,13 @@
         <v>89</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>107</v>
@@ -25052,7 +25056,7 @@
         <v>81</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>81</v>
@@ -25060,10 +25064,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25089,10 +25093,10 @@
         <v>343</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -25143,7 +25147,7 @@
         <v>81</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -25158,7 +25162,7 @@
         <v>101</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AL188" t="s" s="2">
         <v>107</v>
@@ -25175,10 +25179,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25201,19 +25205,19 @@
         <v>81</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P189" t="s" s="2">
         <v>81</v>
@@ -25262,7 +25266,7 @@
         <v>81</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>79</v>
@@ -25277,10 +25281,10 @@
         <v>101</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>81</v>
@@ -25294,10 +25298,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25409,10 +25413,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25526,14 +25530,14 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
@@ -25555,10 +25559,10 @@
         <v>110</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N192" t="s" s="2">
         <v>113</v>
@@ -25613,7 +25617,7 @@
         <v>81</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>79</v>
@@ -25645,10 +25649,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25674,16 +25678,16 @@
         <v>387</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>81</v>
@@ -25732,7 +25736,7 @@
         <v>81</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>89</v>
@@ -25747,16 +25751,16 @@
         <v>101</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>81</v>
@@ -25764,10 +25768,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25793,16 +25797,16 @@
         <v>566</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>81</v>
@@ -25851,7 +25855,7 @@
         <v>81</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>79</v>
@@ -25866,16 +25870,16 @@
         <v>101</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>81</v>
@@ -25883,14 +25887,14 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
@@ -25909,16 +25913,16 @@
         <v>81</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -25968,7 +25972,7 @@
         <v>81</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>79</v>
@@ -25983,7 +25987,7 @@
         <v>101</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>107</v>
@@ -25992,7 +25996,7 @@
         <v>81</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>81</v>
@@ -26000,10 +26004,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26026,19 +26030,19 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>81</v>
@@ -26087,7 +26091,7 @@
         <v>81</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>
@@ -26102,10 +26106,10 @@
         <v>101</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>81</v>
@@ -26119,10 +26123,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26145,19 +26149,19 @@
         <v>90</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>81</v>
@@ -26206,7 +26210,7 @@
         <v>81</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>79</v>
@@ -26221,7 +26225,7 @@
         <v>101</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>107</v>
@@ -26238,10 +26242,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26353,10 +26357,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26470,14 +26474,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -26499,10 +26503,10 @@
         <v>110</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N200" t="s" s="2">
         <v>113</v>
@@ -26557,7 +26561,7 @@
         <v>81</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -26589,10 +26593,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26615,16 +26619,16 @@
         <v>90</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -26674,7 +26678,7 @@
         <v>81</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>89</v>
@@ -26698,7 +26702,7 @@
         <v>81</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>81</v>
@@ -26706,10 +26710,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26735,10 +26739,10 @@
         <v>173</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -26768,10 +26772,10 @@
         <v>263</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Z202" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>81</v>
@@ -26789,7 +26793,7 @@
         <v>81</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>89</v>
@@ -26804,7 +26808,7 @@
         <v>101</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>107</v>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:14:15+00:00</t>
+    <t>2025-07-24T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1853,7 +1853,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -1886,10 +1886,6 @@
   </si>
   <si>
     <t>usualName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
   </si>
   <si>
     <t>Name of a human | Nom utilisé</t>
@@ -2467,6 +2463,10 @@
   </si>
   <si>
     <t>Patient.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+</t>
   </si>
   <si>
     <t>Name of a human - parts and usage</t>
@@ -19571,13 +19571,13 @@
         <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>580</v>
@@ -19664,10 +19664,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19779,10 +19779,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19896,10 +19896,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19925,16 +19925,16 @@
         <v>173</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -19962,28 +19962,28 @@
         <v>263</v>
       </c>
       <c r="Y144" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z144" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Z144" t="s" s="2">
+      <c r="AA144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF144" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -20007,7 +20007,7 @@
         <v>81</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>81</v>
@@ -20015,10 +20015,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20044,13 +20044,13 @@
         <v>103</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>284</v>
@@ -20102,7 +20102,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -20126,7 +20126,7 @@
         <v>81</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -20134,14 +20134,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20163,13 +20163,13 @@
         <v>103</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -20219,7 +20219,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20234,16 +20234,16 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN146" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -20251,14 +20251,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B147" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -20280,13 +20280,13 @@
         <v>103</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20336,7 +20336,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -20351,16 +20351,16 @@
         <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN147" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>81</v>
@@ -20368,10 +20368,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20397,10 +20397,10 @@
         <v>103</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20451,7 +20451,7 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -20466,16 +20466,16 @@
         <v>101</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN148" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>81</v>
@@ -20483,10 +20483,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B149" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20512,10 +20512,10 @@
         <v>103</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -20566,7 +20566,7 @@
         <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20581,16 +20581,16 @@
         <v>101</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN149" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>81</v>
@@ -20598,10 +20598,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20627,14 +20627,14 @@
         <v>343</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>81</v>
@@ -20683,7 +20683,7 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20707,7 +20707,7 @@
         <v>81</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>81</v>
@@ -20715,13 +20715,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>576</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>81</v>
@@ -20743,13 +20743,13 @@
         <v>90</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>580</v>
@@ -20836,10 +20836,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20951,10 +20951,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21066,13 +21066,13 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C154" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>81</v>
@@ -21094,13 +21094,13 @@
         <v>81</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21183,10 +21183,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21212,16 +21212,16 @@
         <v>173</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>81</v>
@@ -21249,28 +21249,28 @@
         <v>263</v>
       </c>
       <c r="Y155" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z155" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Z155" t="s" s="2">
+      <c r="AA155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF155" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -21294,7 +21294,7 @@
         <v>81</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>81</v>
@@ -21302,10 +21302,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21331,13 +21331,13 @@
         <v>103</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>284</v>
@@ -21389,7 +21389,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -21413,7 +21413,7 @@
         <v>81</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>81</v>
@@ -21421,14 +21421,14 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21450,13 +21450,13 @@
         <v>103</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -21506,7 +21506,7 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -21521,16 +21521,16 @@
         <v>101</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN157" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>81</v>
@@ -21538,14 +21538,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21567,13 +21567,13 @@
         <v>103</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21623,7 +21623,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21638,16 +21638,16 @@
         <v>101</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN158" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>81</v>
@@ -21655,10 +21655,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21684,10 +21684,10 @@
         <v>103</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21738,7 +21738,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -21753,16 +21753,16 @@
         <v>101</v>
       </c>
       <c r="AK159" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN159" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>81</v>
@@ -21770,10 +21770,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21799,10 +21799,10 @@
         <v>103</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21853,7 +21853,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -21868,16 +21868,16 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN160" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>81</v>
@@ -21885,10 +21885,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21914,14 +21914,14 @@
         <v>343</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>81</v>
@@ -21970,7 +21970,7 @@
         <v>81</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -21994,7 +21994,7 @@
         <v>81</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>81</v>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22028,19 +22028,19 @@
         <v>81</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>81</v>
@@ -22089,7 +22089,7 @@
         <v>81</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -22101,19 +22101,19 @@
         <v>207</v>
       </c>
       <c r="AJ162" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AK162" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="AK162" t="s" s="2">
+      <c r="AL162" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN162" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>81</v>
@@ -22121,10 +22121,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22150,16 +22150,16 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>81</v>
@@ -22188,7 +22188,7 @@
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>81</v>
@@ -22206,7 +22206,7 @@
         <v>81</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>79</v>
@@ -22221,16 +22221,16 @@
         <v>101</v>
       </c>
       <c r="AK163" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AL163" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="AL163" t="s" s="2">
+      <c r="AM163" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN163" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>81</v>
@@ -22238,10 +22238,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22264,19 +22264,19 @@
         <v>90</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="N164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>81</v>
@@ -22325,7 +22325,7 @@
         <v>81</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>79</v>
@@ -22340,27 +22340,27 @@
         <v>101</v>
       </c>
       <c r="AK164" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AL164" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AL164" t="s" s="2">
+      <c r="AM164" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN164" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="AM164" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN164" t="s" s="2">
+      <c r="AO164" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AO164" t="s" s="2">
-        <v>697</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22383,19 +22383,19 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L165" t="s" s="2">
+      <c r="M165" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>81</v>
@@ -22444,7 +22444,7 @@
         <v>81</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -22459,7 +22459,7 @@
         <v>101</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>107</v>
@@ -22468,7 +22468,7 @@
         <v>81</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>81</v>
@@ -22476,10 +22476,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22514,7 +22514,7 @@
         <v>243</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>81</v>
@@ -22563,7 +22563,7 @@
         <v>81</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -22595,10 +22595,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22624,14 +22624,14 @@
         <v>401</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>81</v>
@@ -22660,7 +22660,7 @@
       </c>
       <c r="Y167" s="2"/>
       <c r="Z167" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>81</v>
@@ -22678,7 +22678,7 @@
         <v>81</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -22693,16 +22693,16 @@
         <v>101</v>
       </c>
       <c r="AK167" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AL167" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="AL167" t="s" s="2">
+      <c r="AM167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN167" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>81</v>
@@ -22710,10 +22710,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22736,19 +22736,19 @@
         <v>81</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M168" t="s" s="2">
+      <c r="N168" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="N168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>81</v>
@@ -22797,7 +22797,7 @@
         <v>81</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22812,7 +22812,7 @@
         <v>101</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>107</v>
@@ -22821,7 +22821,7 @@
         <v>81</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>81</v>
@@ -22829,10 +22829,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22855,19 +22855,19 @@
         <v>81</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="N169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>81</v>
@@ -22916,7 +22916,7 @@
         <v>81</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -22931,7 +22931,7 @@
         <v>101</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>107</v>
@@ -22940,7 +22940,7 @@
         <v>81</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>81</v>
@@ -22948,10 +22948,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22974,19 +22974,19 @@
         <v>81</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="M170" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="N170" t="s" s="2">
+      <c r="O170" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>81</v>
@@ -23035,7 +23035,7 @@
         <v>81</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>79</v>
@@ -23047,10 +23047,10 @@
         <v>81</v>
       </c>
       <c r="AJ170" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AK170" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>107</v>
@@ -23067,10 +23067,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23182,10 +23182,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23295,13 +23295,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>81</v>
@@ -23323,13 +23323,13 @@
         <v>81</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23412,13 +23412,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>81</v>
@@ -23440,13 +23440,13 @@
         <v>81</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -23529,14 +23529,14 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -23558,10 +23558,10 @@
         <v>110</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>113</v>
@@ -23616,7 +23616,7 @@
         <v>81</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>79</v>
@@ -23648,10 +23648,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23677,14 +23677,14 @@
         <v>401</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>81</v>
@@ -23712,16 +23712,16 @@
         <v>155</v>
       </c>
       <c r="Y176" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Z176" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="Z176" t="s" s="2">
+      <c r="AA176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB176" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="AC176" s="2"/>
       <c r="AD176" t="s" s="2">
@@ -23731,7 +23731,7 @@
         <v>116</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -23746,7 +23746,7 @@
         <v>101</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>107</v>
@@ -23755,7 +23755,7 @@
         <v>81</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>81</v>
@@ -23763,13 +23763,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="C177" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>81</v>
@@ -23794,14 +23794,14 @@
         <v>401</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>81</v>
@@ -23830,7 +23830,7 @@
       </c>
       <c r="Y177" s="2"/>
       <c r="Z177" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>81</v>
@@ -23848,7 +23848,7 @@
         <v>81</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>79</v>
@@ -23863,7 +23863,7 @@
         <v>101</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>107</v>
@@ -23872,7 +23872,7 @@
         <v>81</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>81</v>
@@ -23880,13 +23880,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="C178" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>81</v>
@@ -23911,14 +23911,14 @@
         <v>401</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>81</v>
@@ -23947,7 +23947,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>81</v>
@@ -23965,7 +23965,7 @@
         <v>81</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23980,7 +23980,7 @@
         <v>101</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>107</v>
@@ -23989,7 +23989,7 @@
         <v>81</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>81</v>
@@ -23997,10 +23997,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24023,7 +24023,7 @@
         <v>81</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>577</v>
+        <v>774</v>
       </c>
       <c r="L179" t="s" s="2">
         <v>775</v>
@@ -24084,7 +24084,7 @@
         <v>81</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>79</v>
@@ -24142,19 +24142,19 @@
         <v>81</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>782</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>81</v>
@@ -24215,19 +24215,19 @@
         <v>207</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="AK180" t="s" s="2">
+      <c r="AL180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN180" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="AL180" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>81</v>
@@ -24452,7 +24452,7 @@
         <v>101</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>107</v>
@@ -24727,7 +24727,7 @@
         <v>81</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L185" t="s" s="2">
         <v>809</v>
@@ -25059,7 +25059,7 @@
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
@@ -25081,10 +25081,10 @@
         <v>110</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="N188" t="s" s="2">
         <v>113</v>
@@ -25139,7 +25139,7 @@
         <v>81</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -25671,7 +25671,7 @@
         <v>90</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L193" t="s" s="2">
         <v>850</v>
@@ -26003,7 +26003,7 @@
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
@@ -26025,10 +26025,10 @@
         <v>110</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>113</v>
@@ -26083,7 +26083,7 @@
         <v>81</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:40:01+00:00</t>
+    <t>2025-07-24T14:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1777,25 +1777,25 @@
     <t>Patient.identifier:INS-NIA.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber</t>
-  </si>
-  <si>
-    <t>initialNumber</t>
+    <t>Patient.identifier:InitialNumbeMDPH</t>
+  </si>
+  <si>
+    <t>InitialNumbeMDPH</t>
   </si>
   <si>
     <t>Numéro de l’individu attribué par la MDPH ayant créé le dossier Individu (= MDPH initiale).</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.type</t>
+    <t>Patient.identifier:InitialNumbeMDPH.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1807,16 +1807,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.assigner</t>
+    <t>Patient.identifier:InitialNumbeMDPH.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:41:36+00:00</t>
+    <t>2025-07-25T06:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1777,25 +1777,25 @@
     <t>Patient.identifier:INS-NIA.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:InitialNumbeMDPH</t>
-  </si>
-  <si>
-    <t>InitialNumbeMDPH</t>
+    <t>Patient.identifier:InitialNumberMDPH</t>
+  </si>
+  <si>
+    <t>InitialNumberMDPH</t>
   </si>
   <si>
     <t>Numéro de l’individu attribué par la MDPH ayant créé le dossier Individu (= MDPH initiale).</t>
   </si>
   <si>
-    <t>Patient.identifier:InitialNumbeMDPH.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.type</t>
+    <t>Patient.identifier:InitialNumberMDPH.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1807,16 +1807,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Patient.identifier:InitialNumbeMDPH.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.assigner</t>
+    <t>Patient.identifier:InitialNumberMDPH.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T06:57:33+00:00</t>
+    <t>2025-07-28T14:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:46:36+00:00</t>
+    <t>2025-07-28T15:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11922,7 +11922,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
